--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Spp1-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Spp1-Itgb5.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H2">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I2">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J2">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.050973666666667</v>
+        <v>6.468986666666666</v>
       </c>
       <c r="N2">
-        <v>15.152921</v>
+        <v>19.40696</v>
       </c>
       <c r="O2">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636807</v>
       </c>
       <c r="P2">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636806</v>
       </c>
       <c r="Q2">
-        <v>7.142293956534334</v>
+        <v>174.4737693089511</v>
       </c>
       <c r="R2">
-        <v>64.280645608809</v>
+        <v>1570.26392378056</v>
       </c>
       <c r="S2">
-        <v>2.02434945635158E-05</v>
+        <v>0.0001155674393963276</v>
       </c>
       <c r="T2">
-        <v>2.02434945635158E-05</v>
+        <v>0.0001155674393963276</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H3">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I3">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J3">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>70.45294699999999</v>
       </c>
       <c r="O3">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="P3">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="Q3">
-        <v>33.20783217824033</v>
+        <v>633.3908670916907</v>
       </c>
       <c r="R3">
-        <v>298.870489604163</v>
+        <v>5700.517803825216</v>
       </c>
       <c r="S3">
-        <v>9.412138092570842E-05</v>
+        <v>0.0004195436422147096</v>
       </c>
       <c r="T3">
-        <v>9.412138092570843E-05</v>
+        <v>0.0004195436422147096</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H4">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I4">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J4">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.27825933333333</v>
+        <v>46.58699033333333</v>
       </c>
       <c r="N4">
-        <v>150.834778</v>
+        <v>139.760971</v>
       </c>
       <c r="O4">
-        <v>0.3331192181294949</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="P4">
-        <v>0.333119218129495</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="Q4">
-        <v>71.09562066248468</v>
+        <v>1256.488569701231</v>
       </c>
       <c r="R4">
-        <v>639.8605859623621</v>
+        <v>11308.39712731108</v>
       </c>
       <c r="S4">
-        <v>0.0002015072215074646</v>
+        <v>0.0008322693273966865</v>
       </c>
       <c r="T4">
-        <v>0.0002015072215074647</v>
+        <v>0.0008322693273966864</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H5">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I5">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J5">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.597645</v>
+        <v>5.023445</v>
       </c>
       <c r="N5">
-        <v>22.792935</v>
+        <v>15.070335</v>
       </c>
       <c r="O5">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="P5">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="Q5">
-        <v>10.743396728735</v>
+        <v>135.4863488252983</v>
       </c>
       <c r="R5">
-        <v>96.69057055861501</v>
+        <v>1219.377139427685</v>
       </c>
       <c r="S5">
-        <v>3.045014593285803E-05</v>
+        <v>8.974306263293452E-05</v>
       </c>
       <c r="T5">
-        <v>3.045014593285803E-05</v>
+        <v>8.974306263293451E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H6">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I6">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J6">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.18325933333333</v>
+        <v>10.41100233333333</v>
       </c>
       <c r="N6">
-        <v>30.549778</v>
+        <v>31.233007</v>
       </c>
       <c r="O6">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899644</v>
       </c>
       <c r="P6">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899643</v>
       </c>
       <c r="Q6">
-        <v>14.39956657748467</v>
+        <v>280.7930999055419</v>
       </c>
       <c r="R6">
-        <v>129.596099197362</v>
+        <v>2527.137899149877</v>
       </c>
       <c r="S6">
-        <v>4.081287461735032E-05</v>
+        <v>0.0001859909353983095</v>
       </c>
       <c r="T6">
-        <v>4.081287461735032E-05</v>
+        <v>0.0001859909353983094</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H7">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I7">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J7">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.33727533333333</v>
+        <v>60.412969</v>
       </c>
       <c r="N7">
-        <v>163.011826</v>
+        <v>181.238907</v>
       </c>
       <c r="O7">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768016</v>
       </c>
       <c r="P7">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768015</v>
       </c>
       <c r="Q7">
-        <v>76.83524382417268</v>
+        <v>1629.386325819419</v>
       </c>
       <c r="R7">
-        <v>691.5171944175539</v>
+        <v>14664.47693237477</v>
       </c>
       <c r="S7">
-        <v>0.0002177751084044973</v>
+        <v>0.001079268283181867</v>
       </c>
       <c r="T7">
-        <v>0.0002177751084044973</v>
+        <v>0.001079268283181866</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I8">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J8">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.050973666666667</v>
+        <v>6.468986666666666</v>
       </c>
       <c r="N8">
-        <v>15.152921</v>
+        <v>19.40696</v>
       </c>
       <c r="O8">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636807</v>
       </c>
       <c r="P8">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636806</v>
       </c>
       <c r="Q8">
-        <v>114.6268721559383</v>
+        <v>146.8072804481333</v>
       </c>
       <c r="R8">
-        <v>1031.641849403445</v>
+        <v>1321.2655240332</v>
       </c>
       <c r="S8">
-        <v>0.0003248884010435651</v>
+        <v>9.724178914302218E-05</v>
       </c>
       <c r="T8">
-        <v>0.0003248884010435652</v>
+        <v>9.724178914302217E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I9">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J9">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>70.45294699999999</v>
       </c>
       <c r="O9">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="P9">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="Q9">
         <v>532.9534120040682</v>
@@ -1013,10 +1013,10 @@
         <v>4796.580708036614</v>
       </c>
       <c r="S9">
-        <v>0.001510556631268455</v>
+        <v>0.0003530161661939076</v>
       </c>
       <c r="T9">
-        <v>0.001510556631268456</v>
+        <v>0.0003530161661939076</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I10">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J10">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>50.27825933333333</v>
+        <v>46.58699033333333</v>
       </c>
       <c r="N10">
-        <v>150.834778</v>
+        <v>139.760971</v>
       </c>
       <c r="O10">
-        <v>0.3331192181294949</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="P10">
-        <v>0.333119218129495</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="Q10">
-        <v>1141.015571484556</v>
+        <v>1057.245857429521</v>
       </c>
       <c r="R10">
-        <v>10269.14014336101</v>
+        <v>9515.212716865693</v>
       </c>
       <c r="S10">
-        <v>0.003233994940393413</v>
+        <v>0.0007002955059631203</v>
       </c>
       <c r="T10">
-        <v>0.003233994940393415</v>
+        <v>0.0007002955059631203</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I11">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J11">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.597645</v>
+        <v>5.023445</v>
       </c>
       <c r="N11">
-        <v>22.792935</v>
+        <v>15.070335</v>
       </c>
       <c r="O11">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="P11">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="Q11">
-        <v>172.421069594675</v>
+        <v>114.002136181675</v>
       </c>
       <c r="R11">
-        <v>1551.789626352075</v>
+        <v>1026.019225635075</v>
       </c>
       <c r="S11">
-        <v>0.0004886952296022602</v>
+        <v>7.551241092807463E-05</v>
       </c>
       <c r="T11">
-        <v>0.0004886952296022604</v>
+        <v>7.551241092807463E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I12">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J12">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.18325933333333</v>
+        <v>10.41100233333333</v>
       </c>
       <c r="N12">
-        <v>30.549778</v>
+        <v>31.233007</v>
       </c>
       <c r="O12">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899644</v>
       </c>
       <c r="P12">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899643</v>
       </c>
       <c r="Q12">
-        <v>231.0990400595566</v>
+        <v>236.2674431177016</v>
       </c>
       <c r="R12">
-        <v>2079.89136053601</v>
+        <v>2126.406988059315</v>
       </c>
       <c r="S12">
-        <v>0.0006550069472846774</v>
+        <v>0.0001564981574134504</v>
       </c>
       <c r="T12">
-        <v>0.0006550069472846775</v>
+        <v>0.0001564981574134504</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I13">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J13">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.33727533333333</v>
+        <v>60.412969</v>
       </c>
       <c r="N13">
-        <v>163.011826</v>
+        <v>181.238907</v>
       </c>
       <c r="O13">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768016</v>
       </c>
       <c r="P13">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768015</v>
       </c>
       <c r="Q13">
-        <v>1233.130941473796</v>
+        <v>1371.012824680535</v>
       </c>
       <c r="R13">
-        <v>11098.17847326417</v>
+        <v>12339.11542212481</v>
       </c>
       <c r="S13">
-        <v>0.003495078704649212</v>
+        <v>0.0009081275778898812</v>
       </c>
       <c r="T13">
-        <v>0.003495078704649213</v>
+        <v>0.000908127577889881</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H14">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I14">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J14">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.050973666666667</v>
+        <v>6.468986666666666</v>
       </c>
       <c r="N14">
-        <v>15.152921</v>
+        <v>19.40696</v>
       </c>
       <c r="O14">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636807</v>
       </c>
       <c r="P14">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636806</v>
       </c>
       <c r="Q14">
-        <v>4883.396732110406</v>
+        <v>7853.077113200398</v>
       </c>
       <c r="R14">
-        <v>43950.57058899365</v>
+        <v>70677.69401880358</v>
       </c>
       <c r="S14">
-        <v>0.01384107344217128</v>
+        <v>0.005201698896912142</v>
       </c>
       <c r="T14">
-        <v>0.01384107344217129</v>
+        <v>0.005201698896912141</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H15">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I15">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J15">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>70.45294699999999</v>
       </c>
       <c r="O15">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="P15">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="Q15">
-        <v>22705.17289355284</v>
+        <v>28508.9692380064</v>
       </c>
       <c r="R15">
-        <v>204346.5560419756</v>
+        <v>256580.7231420576</v>
       </c>
       <c r="S15">
-        <v>0.06435356019109456</v>
+        <v>0.01888369001090895</v>
       </c>
       <c r="T15">
-        <v>0.06435356019109457</v>
+        <v>0.01888369001090895</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H16">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I16">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J16">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.27825933333333</v>
+        <v>46.58699033333333</v>
       </c>
       <c r="N16">
-        <v>150.834778</v>
+        <v>139.760971</v>
       </c>
       <c r="O16">
-        <v>0.3331192181294949</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="P16">
-        <v>0.333119218129495</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="Q16">
-        <v>48610.16974706055</v>
+        <v>56554.64239008915</v>
       </c>
       <c r="R16">
-        <v>437491.527723545</v>
+        <v>508991.7815108024</v>
       </c>
       <c r="S16">
-        <v>0.1377764221123836</v>
+        <v>0.03746050327728144</v>
       </c>
       <c r="T16">
-        <v>0.1377764221123836</v>
+        <v>0.03746050327728144</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H17">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I17">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J17">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.597645</v>
+        <v>5.023445</v>
       </c>
       <c r="N17">
-        <v>22.792935</v>
+        <v>15.070335</v>
       </c>
       <c r="O17">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="P17">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="Q17">
-        <v>7345.576756732573</v>
+        <v>6098.250466676024</v>
       </c>
       <c r="R17">
-        <v>66110.19081059315</v>
+        <v>54884.25420008422</v>
       </c>
       <c r="S17">
-        <v>0.02081966158852384</v>
+        <v>0.004039341810649192</v>
       </c>
       <c r="T17">
-        <v>0.02081966158852385</v>
+        <v>0.004039341810649192</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H18">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I18">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J18">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.18325933333333</v>
+        <v>10.41100233333333</v>
       </c>
       <c r="N18">
-        <v>30.549778</v>
+        <v>31.233007</v>
       </c>
       <c r="O18">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899644</v>
       </c>
       <c r="P18">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899643</v>
       </c>
       <c r="Q18">
-        <v>9845.407763420557</v>
+        <v>12638.5179568633</v>
       </c>
       <c r="R18">
-        <v>88608.669870785</v>
+        <v>113746.6616117697</v>
       </c>
       <c r="S18">
-        <v>0.02790496439201581</v>
+        <v>0.008371465600957039</v>
       </c>
       <c r="T18">
-        <v>0.02790496439201581</v>
+        <v>0.008371465600957037</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H19">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I19">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J19">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>54.33727533333333</v>
+        <v>60.412969</v>
       </c>
       <c r="N19">
-        <v>163.011826</v>
+        <v>181.238907</v>
       </c>
       <c r="O19">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768016</v>
       </c>
       <c r="P19">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768015</v>
       </c>
       <c r="Q19">
-        <v>52534.51914543407</v>
+        <v>73338.7976572918</v>
       </c>
       <c r="R19">
-        <v>472810.6723089067</v>
+        <v>660049.1789156261</v>
       </c>
       <c r="S19">
-        <v>0.1488992555038363</v>
+        <v>0.04857794433643715</v>
       </c>
       <c r="T19">
-        <v>0.1488992555038363</v>
+        <v>0.04857794433643714</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H20">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I20">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J20">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.050973666666667</v>
+        <v>6.468986666666666</v>
       </c>
       <c r="N20">
-        <v>15.152921</v>
+        <v>19.40696</v>
       </c>
       <c r="O20">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636807</v>
       </c>
       <c r="P20">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636806</v>
       </c>
       <c r="Q20">
-        <v>283.4517272048117</v>
+        <v>971.7387264732176</v>
       </c>
       <c r="R20">
-        <v>2551.065544843305</v>
+        <v>8745.648538258958</v>
       </c>
       <c r="S20">
-        <v>0.0008033908340387118</v>
+        <v>0.0006436575356029561</v>
       </c>
       <c r="T20">
-        <v>0.0008033908340387119</v>
+        <v>0.000643657535602956</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H21">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I21">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J21">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>70.45294699999999</v>
       </c>
       <c r="O21">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="P21">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="Q21">
-        <v>1317.898345396181</v>
+        <v>3527.696094291177</v>
       </c>
       <c r="R21">
-        <v>11861.08510856563</v>
+        <v>31749.26484862059</v>
       </c>
       <c r="S21">
-        <v>0.003735336035264431</v>
+        <v>0.002336665311928591</v>
       </c>
       <c r="T21">
-        <v>0.003735336035264432</v>
+        <v>0.002336665311928591</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H22">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I22">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J22">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>50.27825933333333</v>
+        <v>46.58699033333333</v>
       </c>
       <c r="N22">
-        <v>150.834778</v>
+        <v>139.760971</v>
       </c>
       <c r="O22">
-        <v>0.3331192181294949</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="P22">
-        <v>0.333119218129495</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="Q22">
-        <v>2821.527172658943</v>
+        <v>6998.063992000823</v>
       </c>
       <c r="R22">
-        <v>25393.74455393049</v>
+        <v>62982.57592800741</v>
       </c>
       <c r="S22">
-        <v>0.007997090336540651</v>
+        <v>0.004635357735953298</v>
       </c>
       <c r="T22">
-        <v>0.007997090336540655</v>
+        <v>0.004635357735953298</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H23">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I23">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J23">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.597645</v>
+        <v>5.023445</v>
       </c>
       <c r="N23">
-        <v>22.792935</v>
+        <v>15.070335</v>
       </c>
       <c r="O23">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="P23">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="Q23">
-        <v>426.366427556575</v>
+        <v>754.5967086253983</v>
       </c>
       <c r="R23">
-        <v>3837.297848009175</v>
+        <v>6791.370377628585</v>
       </c>
       <c r="S23">
-        <v>0.001208455786170874</v>
+        <v>0.000499827623018287</v>
       </c>
       <c r="T23">
-        <v>0.001208455786170874</v>
+        <v>0.000499827623018287</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H24">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I24">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J24">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.18325933333333</v>
+        <v>10.41100233333333</v>
       </c>
       <c r="N24">
-        <v>30.549778</v>
+        <v>31.233007</v>
       </c>
       <c r="O24">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899644</v>
       </c>
       <c r="P24">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899643</v>
       </c>
       <c r="Q24">
-        <v>571.4665403339434</v>
+        <v>1563.888545455295</v>
       </c>
       <c r="R24">
-        <v>5143.19886300549</v>
+        <v>14074.99690909766</v>
       </c>
       <c r="S24">
-        <v>0.00161971488052485</v>
+        <v>0.001035884049593026</v>
       </c>
       <c r="T24">
-        <v>0.00161971488052485</v>
+        <v>0.001035884049593026</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H25">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I25">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J25">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>54.33727533333333</v>
+        <v>60.412969</v>
       </c>
       <c r="N25">
-        <v>163.011826</v>
+        <v>181.238907</v>
       </c>
       <c r="O25">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768016</v>
       </c>
       <c r="P25">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768015</v>
       </c>
       <c r="Q25">
-        <v>3049.311986415703</v>
+        <v>9074.933151589839</v>
       </c>
       <c r="R25">
-        <v>27443.80787774133</v>
+        <v>81674.39836430855</v>
       </c>
       <c r="S25">
-        <v>0.00864270373008038</v>
+        <v>0.006011028426656899</v>
       </c>
       <c r="T25">
-        <v>0.008642703730080383</v>
+        <v>0.006011028426656898</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H26">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I26">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J26">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.050973666666667</v>
+        <v>6.468986666666666</v>
       </c>
       <c r="N26">
-        <v>15.152921</v>
+        <v>19.40696</v>
       </c>
       <c r="O26">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636807</v>
       </c>
       <c r="P26">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636806</v>
       </c>
       <c r="Q26">
-        <v>4260.470803987527</v>
+        <v>6685.20167594607</v>
       </c>
       <c r="R26">
-        <v>38344.23723588774</v>
+        <v>60166.81508351464</v>
       </c>
       <c r="S26">
-        <v>0.01207550656461485</v>
+        <v>0.004428124884314566</v>
       </c>
       <c r="T26">
-        <v>0.01207550656461485</v>
+        <v>0.004428124884314565</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H27">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I27">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J27">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>70.45294699999999</v>
       </c>
       <c r="O27">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="P27">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="Q27">
-        <v>19808.90177863269</v>
+        <v>24269.23945634657</v>
       </c>
       <c r="R27">
-        <v>178280.1160076942</v>
+        <v>218423.1551071192</v>
       </c>
       <c r="S27">
-        <v>0.05614462214875678</v>
+        <v>0.01607538984900238</v>
       </c>
       <c r="T27">
-        <v>0.0561446221487568</v>
+        <v>0.01607538984900238</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H28">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I28">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J28">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>50.27825933333333</v>
+        <v>46.58699033333333</v>
       </c>
       <c r="N28">
-        <v>150.834778</v>
+        <v>139.760971</v>
       </c>
       <c r="O28">
-        <v>0.3331192181294949</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="P28">
-        <v>0.333119218129495</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="Q28">
-        <v>42409.45807708891</v>
+        <v>48144.08220355224</v>
       </c>
       <c r="R28">
-        <v>381685.1226938002</v>
+        <v>433296.7398319702</v>
       </c>
       <c r="S28">
-        <v>0.1202016661943412</v>
+        <v>0.03188954032682431</v>
       </c>
       <c r="T28">
-        <v>0.1202016661943412</v>
+        <v>0.03188954032682431</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H29">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I29">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J29">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>7.597645</v>
+        <v>5.023445</v>
       </c>
       <c r="N29">
-        <v>22.792935</v>
+        <v>15.070335</v>
       </c>
       <c r="O29">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="P29">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="Q29">
-        <v>6408.575224848427</v>
+        <v>5191.345208062918</v>
       </c>
       <c r="R29">
-        <v>57677.17702363584</v>
+        <v>46722.10687256627</v>
       </c>
       <c r="S29">
-        <v>0.01816390623427255</v>
+        <v>0.003438628483206888</v>
       </c>
       <c r="T29">
-        <v>0.01816390623427256</v>
+        <v>0.003438628483206888</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H30">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I30">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J30">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.18325933333333</v>
+        <v>10.41100233333333</v>
       </c>
       <c r="N30">
-        <v>30.549778</v>
+        <v>31.233007</v>
       </c>
       <c r="O30">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899644</v>
       </c>
       <c r="P30">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899643</v>
       </c>
       <c r="Q30">
-        <v>8589.52786972891</v>
+        <v>10758.97259237075</v>
       </c>
       <c r="R30">
-        <v>77305.75082756019</v>
+        <v>96830.75333133672</v>
       </c>
       <c r="S30">
-        <v>0.02434540804288006</v>
+        <v>0.00712649768478273</v>
       </c>
       <c r="T30">
-        <v>0.02434540804288007</v>
+        <v>0.007126497684782729</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H31">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I31">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J31">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>54.33727533333333</v>
+        <v>60.412969</v>
       </c>
       <c r="N31">
-        <v>163.011826</v>
+        <v>181.238907</v>
       </c>
       <c r="O31">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768016</v>
       </c>
       <c r="P31">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768015</v>
       </c>
       <c r="Q31">
-        <v>45833.21759400018</v>
+        <v>62432.17097489942</v>
       </c>
       <c r="R31">
-        <v>412498.9583460016</v>
+        <v>561889.5387740948</v>
       </c>
       <c r="S31">
-        <v>0.1299056713205891</v>
+        <v>0.04135364395519306</v>
       </c>
       <c r="T31">
-        <v>0.1299056713205892</v>
+        <v>0.04135364395519305</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H32">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I32">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J32">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>5.050973666666667</v>
+        <v>6.468986666666666</v>
       </c>
       <c r="N32">
-        <v>15.152921</v>
+        <v>19.40696</v>
       </c>
       <c r="O32">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636807</v>
       </c>
       <c r="P32">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636806</v>
       </c>
       <c r="Q32">
-        <v>2258.108159634062</v>
+        <v>48257.32862714999</v>
       </c>
       <c r="R32">
-        <v>20322.97343670656</v>
+        <v>434315.9576443499</v>
       </c>
       <c r="S32">
-        <v>0.006400184664978941</v>
+        <v>0.03196455217099906</v>
       </c>
       <c r="T32">
-        <v>0.006400184664978941</v>
+        <v>0.03196455217099905</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H33">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I33">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J33">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>70.45294699999999</v>
       </c>
       <c r="O33">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="P33">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="Q33">
-        <v>10498.99055706594</v>
+        <v>175188.2322697723</v>
       </c>
       <c r="R33">
-        <v>94490.91501359343</v>
+        <v>1576694.090427951</v>
       </c>
       <c r="S33">
-        <v>0.02975742241327425</v>
+        <v>0.1160406833415502</v>
       </c>
       <c r="T33">
-        <v>0.02975742241327425</v>
+        <v>0.1160406833415502</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H34">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I34">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J34">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>50.27825933333333</v>
+        <v>46.58699033333333</v>
       </c>
       <c r="N34">
-        <v>150.834778</v>
+        <v>139.760971</v>
       </c>
       <c r="O34">
-        <v>0.3331192181294949</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="P34">
-        <v>0.333119218129495</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="Q34">
-        <v>22477.59642899163</v>
+        <v>347529.500076085</v>
       </c>
       <c r="R34">
-        <v>202298.3678609247</v>
+        <v>3127765.500684765</v>
       </c>
       <c r="S34">
-        <v>0.06370853732432862</v>
+        <v>0.2301956024539127</v>
       </c>
       <c r="T34">
-        <v>0.06370853732432863</v>
+        <v>0.2301956024539127</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H35">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I35">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J35">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>7.597645</v>
+        <v>5.023445</v>
       </c>
       <c r="N35">
-        <v>22.792935</v>
+        <v>15.070335</v>
       </c>
       <c r="O35">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="P35">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="Q35">
-        <v>3396.633065367978</v>
+        <v>37473.88094870296</v>
       </c>
       <c r="R35">
-        <v>30569.6975883118</v>
+        <v>337264.9285383266</v>
       </c>
       <c r="S35">
-        <v>0.009627120279770598</v>
+        <v>0.02482184274826831</v>
       </c>
       <c r="T35">
-        <v>0.0096271202797706</v>
+        <v>0.02482184274826831</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H36">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I36">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J36">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>10.18325933333333</v>
+        <v>10.41100233333333</v>
       </c>
       <c r="N36">
-        <v>30.549778</v>
+        <v>31.233007</v>
       </c>
       <c r="O36">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899644</v>
       </c>
       <c r="P36">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899643</v>
       </c>
       <c r="Q36">
-        <v>4552.567981896637</v>
+        <v>77663.96606233415</v>
       </c>
       <c r="R36">
-        <v>40973.11183706973</v>
+        <v>698975.6945610072</v>
       </c>
       <c r="S36">
-        <v>0.01290340130949742</v>
+        <v>0.05144283709085189</v>
       </c>
       <c r="T36">
-        <v>0.01290340130949742</v>
+        <v>0.05144283709085187</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H37">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I37">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J37">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>54.33727533333333</v>
+        <v>60.412969</v>
       </c>
       <c r="N37">
-        <v>163.011826</v>
+        <v>181.238907</v>
       </c>
       <c r="O37">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768016</v>
       </c>
       <c r="P37">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768015</v>
       </c>
       <c r="Q37">
-        <v>24292.23609147358</v>
+        <v>450668.4970301621</v>
       </c>
       <c r="R37">
-        <v>218630.1248232622</v>
+        <v>4056016.473271458</v>
       </c>
       <c r="S37">
-        <v>0.06885179358985738</v>
+        <v>0.2985125180974428</v>
       </c>
       <c r="T37">
-        <v>0.06885179358985739</v>
+        <v>0.2985125180974426</v>
       </c>
     </row>
   </sheetData>
